--- a/tb/data_tb.xlsx
+++ b/tb/data_tb.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jia/Downloads/data_skripsi/tb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875F1014-E873-AE4A-B84A-8F9A1F684C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B40E45-48E1-0549-AB3B-7C5C9DAE7B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B9126794-30FE-AE42-AA39-BB954CD3589A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B9126794-30FE-AE42-AA39-BB954CD3589A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -241,6 +244,430 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="JK - BULAN"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Bulan</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Jan</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Feb</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Mar</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Apr</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Mei</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Jun</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Jul</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Agt</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Sep</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Okt</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>Nov</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Des</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>Total</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>Jan</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>Feb</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>Mar</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>Apr</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>Mei</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>Jun</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>Jul</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>Agt</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>Sep</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>Okt</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>Nov</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>Des</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>Total</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>Jan</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>Feb</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>Mar</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>Apr</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>Mei</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>Jun</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>Jul</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>Agt</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>Sep</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>Okt</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>Nov</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>Des</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>Total</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>Jan</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>Feb</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>Mar</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>Apr</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>Mei</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>Jun</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>Jul</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>Agt</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>Sep</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>Okt</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>Nov</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>Des</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>Total</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>Jan</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>Feb</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>Mar</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>Apr</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>Mei</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>Jun</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>Jul</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>Agt</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>Sep</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>Okt</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>Nov</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>Des</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>Total</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>Jan</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>Feb</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>Mar</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>Apr</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>Mei</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>Jun</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>Jul</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>Agt</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>Sep</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>Okt</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>Nov</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>Des</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>Total</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>Total DKI Jakarta</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>with kepsri</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -542,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6A4CED-E8FB-8D43-A8C0-A2CE2C4240C3}">
   <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="163" workbookViewId="0">
-      <selection activeCell="H121" sqref="H121"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="163" workbookViewId="0">
+      <selection activeCell="D290" sqref="D290:D301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1967,7 +2394,7 @@
         <v>2019</v>
       </c>
       <c r="D62">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="E62">
         <v>106.75</v>
@@ -1990,7 +2417,7 @@
         <v>2019</v>
       </c>
       <c r="D63">
-        <v>630</v>
+        <v>672</v>
       </c>
       <c r="E63">
         <v>106.75</v>
@@ -2013,7 +2440,7 @@
         <v>2019</v>
       </c>
       <c r="D64">
-        <v>710</v>
+        <v>789</v>
       </c>
       <c r="E64">
         <v>106.75</v>
@@ -2059,7 +2486,7 @@
         <v>2019</v>
       </c>
       <c r="D66">
-        <v>700</v>
+        <v>729</v>
       </c>
       <c r="E66">
         <v>106.75</v>
@@ -2082,7 +2509,7 @@
         <v>2019</v>
       </c>
       <c r="D67">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="E67">
         <v>106.75</v>
@@ -2105,7 +2532,7 @@
         <v>2019</v>
       </c>
       <c r="D68">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="E68">
         <v>106.75</v>
@@ -2128,7 +2555,7 @@
         <v>2019</v>
       </c>
       <c r="D69">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="E69">
         <v>106.75</v>
@@ -2151,7 +2578,7 @@
         <v>2019</v>
       </c>
       <c r="D70">
-        <v>731</v>
+        <v>691</v>
       </c>
       <c r="E70">
         <v>106.75</v>
@@ -2174,7 +2601,7 @@
         <v>2019</v>
       </c>
       <c r="D71">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="E71">
         <v>106.75</v>
@@ -2197,7 +2624,7 @@
         <v>2019</v>
       </c>
       <c r="D72">
-        <v>726</v>
+        <v>679</v>
       </c>
       <c r="E72">
         <v>106.75</v>
@@ -2220,7 +2647,7 @@
         <v>2019</v>
       </c>
       <c r="D73">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="E73">
         <v>106.75</v>
@@ -2243,7 +2670,7 @@
         <v>2019</v>
       </c>
       <c r="D74">
-        <v>619</v>
+        <v>689</v>
       </c>
       <c r="E74">
         <v>106.85</v>
@@ -2266,7 +2693,7 @@
         <v>2019</v>
       </c>
       <c r="D75">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="E75">
         <v>106.85</v>
@@ -2289,7 +2716,7 @@
         <v>2019</v>
       </c>
       <c r="D76">
-        <v>474</v>
+        <v>543</v>
       </c>
       <c r="E76">
         <v>106.85</v>
@@ -2312,7 +2739,7 @@
         <v>2019</v>
       </c>
       <c r="D77">
-        <v>648</v>
+        <v>689</v>
       </c>
       <c r="E77">
         <v>106.85</v>
@@ -2335,7 +2762,7 @@
         <v>2019</v>
       </c>
       <c r="D78">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="E78">
         <v>106.85</v>
@@ -2358,7 +2785,7 @@
         <v>2019</v>
       </c>
       <c r="D79">
-        <v>364</v>
+        <v>447</v>
       </c>
       <c r="E79">
         <v>106.85</v>
@@ -2381,7 +2808,7 @@
         <v>2019</v>
       </c>
       <c r="D80">
-        <v>640</v>
+        <v>724</v>
       </c>
       <c r="E80">
         <v>106.85</v>
@@ -2404,7 +2831,7 @@
         <v>2019</v>
       </c>
       <c r="D81">
-        <v>509</v>
+        <v>660</v>
       </c>
       <c r="E81">
         <v>106.85</v>
@@ -2427,7 +2854,7 @@
         <v>2019</v>
       </c>
       <c r="D82">
-        <v>416</v>
+        <v>614</v>
       </c>
       <c r="E82">
         <v>106.85</v>
@@ -2450,7 +2877,7 @@
         <v>2019</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>626</v>
       </c>
       <c r="E83">
         <v>106.85</v>
@@ -2473,7 +2900,7 @@
         <v>2019</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>648</v>
       </c>
       <c r="E84">
         <v>106.85</v>
@@ -2496,7 +2923,7 @@
         <v>2019</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="E85">
         <v>106.85</v>
@@ -2519,7 +2946,7 @@
         <v>2019</v>
       </c>
       <c r="D86">
-        <v>626</v>
+        <v>702</v>
       </c>
       <c r="E86">
         <v>106.80833333333</v>
@@ -2542,7 +2969,7 @@
         <v>2019</v>
       </c>
       <c r="D87">
-        <v>602</v>
+        <v>663</v>
       </c>
       <c r="E87">
         <v>106.80833333333</v>
@@ -2565,7 +2992,7 @@
         <v>2019</v>
       </c>
       <c r="D88">
-        <v>573</v>
+        <v>613</v>
       </c>
       <c r="E88">
         <v>106.80833333333</v>
@@ -2588,7 +3015,7 @@
         <v>2019</v>
       </c>
       <c r="D89">
-        <v>636</v>
+        <v>715</v>
       </c>
       <c r="E89">
         <v>106.80833333333</v>
@@ -2611,7 +3038,7 @@
         <v>2019</v>
       </c>
       <c r="D90">
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="E90">
         <v>106.80833333333</v>
@@ -2634,7 +3061,7 @@
         <v>2019</v>
       </c>
       <c r="D91">
-        <v>494</v>
+        <v>586</v>
       </c>
       <c r="E91">
         <v>106.80833333333</v>
@@ -2657,7 +3084,7 @@
         <v>2019</v>
       </c>
       <c r="D92">
-        <v>673</v>
+        <v>751</v>
       </c>
       <c r="E92">
         <v>106.80833333333</v>
@@ -2680,7 +3107,7 @@
         <v>2019</v>
       </c>
       <c r="D93">
-        <v>573</v>
+        <v>720</v>
       </c>
       <c r="E93">
         <v>106.80833333333</v>
@@ -2703,7 +3130,7 @@
         <v>2019</v>
       </c>
       <c r="D94">
-        <v>510</v>
+        <v>718</v>
       </c>
       <c r="E94">
         <v>106.80833333333</v>
@@ -2726,7 +3153,7 @@
         <v>2019</v>
       </c>
       <c r="D95">
-        <v>264</v>
+        <v>762</v>
       </c>
       <c r="E95">
         <v>106.80833333333</v>
@@ -2749,7 +3176,7 @@
         <v>2019</v>
       </c>
       <c r="D96">
-        <v>63</v>
+        <v>570</v>
       </c>
       <c r="E96">
         <v>106.80833333333</v>
@@ -2772,7 +3199,7 @@
         <v>2019</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>545</v>
       </c>
       <c r="E97">
         <v>106.80833333333</v>
@@ -2795,7 +3222,7 @@
         <v>2019</v>
       </c>
       <c r="D98">
-        <v>1122</v>
+        <v>1100</v>
       </c>
       <c r="E98">
         <v>106.91</v>
@@ -2818,7 +3245,7 @@
         <v>2019</v>
       </c>
       <c r="D99">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="E99">
         <v>106.91</v>
@@ -2841,7 +3268,7 @@
         <v>2019</v>
       </c>
       <c r="D100">
-        <v>1158</v>
+        <v>1134</v>
       </c>
       <c r="E100">
         <v>106.91</v>
@@ -2864,7 +3291,7 @@
         <v>2019</v>
       </c>
       <c r="D101">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="E101">
         <v>106.91</v>
@@ -2887,7 +3314,7 @@
         <v>2019</v>
       </c>
       <c r="D102">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="E102">
         <v>106.91</v>
@@ -2910,7 +3337,7 @@
         <v>2019</v>
       </c>
       <c r="D103">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="E103">
         <v>106.91</v>
@@ -2933,7 +3360,7 @@
         <v>2019</v>
       </c>
       <c r="D104">
-        <v>1106</v>
+        <v>1143</v>
       </c>
       <c r="E104">
         <v>106.91</v>
@@ -2956,7 +3383,7 @@
         <v>2019</v>
       </c>
       <c r="D105">
-        <v>1036</v>
+        <v>1071</v>
       </c>
       <c r="E105">
         <v>106.91</v>
@@ -2979,7 +3406,7 @@
         <v>2019</v>
       </c>
       <c r="D106">
-        <v>1071</v>
+        <v>1121</v>
       </c>
       <c r="E106">
         <v>106.91</v>
@@ -3002,7 +3429,7 @@
         <v>2019</v>
       </c>
       <c r="D107">
-        <v>11</v>
+        <v>1138</v>
       </c>
       <c r="E107">
         <v>106.91</v>
@@ -3025,7 +3452,7 @@
         <v>2019</v>
       </c>
       <c r="D108">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="E108">
         <v>106.91</v>
@@ -3048,7 +3475,7 @@
         <v>2019</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>918</v>
       </c>
       <c r="E109">
         <v>106.91</v>
@@ -3071,7 +3498,7 @@
         <v>2019</v>
       </c>
       <c r="D110">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="E110">
         <v>106.89166666667001</v>
@@ -3094,7 +3521,7 @@
         <v>2019</v>
       </c>
       <c r="D111">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="E111">
         <v>106.89166666667001</v>
@@ -3117,7 +3544,7 @@
         <v>2019</v>
       </c>
       <c r="D112">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="E112">
         <v>106.89166666667001</v>
@@ -3140,7 +3567,7 @@
         <v>2019</v>
       </c>
       <c r="D113">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="E113">
         <v>106.89166666667001</v>
@@ -3163,7 +3590,7 @@
         <v>2019</v>
       </c>
       <c r="D114">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="E114">
         <v>106.89166666667001</v>
@@ -3186,7 +3613,7 @@
         <v>2019</v>
       </c>
       <c r="D115">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="E115">
         <v>106.89166666667001</v>
@@ -3209,7 +3636,7 @@
         <v>2019</v>
       </c>
       <c r="D116">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E116">
         <v>106.89166666667001</v>
@@ -3232,7 +3659,7 @@
         <v>2019</v>
       </c>
       <c r="D117">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="E117">
         <v>106.89166666667001</v>
@@ -3255,7 +3682,7 @@
         <v>2019</v>
       </c>
       <c r="D118">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="E118">
         <v>106.89166666667001</v>
@@ -3278,7 +3705,7 @@
         <v>2019</v>
       </c>
       <c r="D119">
-        <v>35</v>
+        <v>481</v>
       </c>
       <c r="E119">
         <v>106.89166666667001</v>
@@ -3301,7 +3728,7 @@
         <v>2019</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="E120">
         <v>106.89166666667001</v>
@@ -3324,7 +3751,7 @@
         <v>2019</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>377</v>
       </c>
       <c r="E121">
         <v>106.89166666667001</v>
@@ -3347,7 +3774,7 @@
         <v>2020</v>
       </c>
       <c r="D122">
-        <v>715</v>
+        <v>745</v>
       </c>
       <c r="E122">
         <v>106.75</v>
@@ -3370,7 +3797,7 @@
         <v>2020</v>
       </c>
       <c r="D123">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="E123">
         <v>106.75</v>
@@ -3393,7 +3820,7 @@
         <v>2020</v>
       </c>
       <c r="D124">
-        <v>689</v>
+        <v>717</v>
       </c>
       <c r="E124">
         <v>106.75</v>
@@ -3416,7 +3843,7 @@
         <v>2020</v>
       </c>
       <c r="D125">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="E125">
         <v>106.75</v>
@@ -3439,7 +3866,7 @@
         <v>2020</v>
       </c>
       <c r="D126">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E126">
         <v>106.75</v>
@@ -3462,7 +3889,7 @@
         <v>2020</v>
       </c>
       <c r="D127">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="E127">
         <v>106.75</v>
@@ -3485,7 +3912,7 @@
         <v>2020</v>
       </c>
       <c r="D128">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E128">
         <v>106.75</v>
@@ -3508,7 +3935,7 @@
         <v>2020</v>
       </c>
       <c r="D129">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="E129">
         <v>106.75</v>
@@ -3531,7 +3958,7 @@
         <v>2020</v>
       </c>
       <c r="D130">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="E130">
         <v>106.75</v>
@@ -3554,7 +3981,7 @@
         <v>2020</v>
       </c>
       <c r="D131">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E131">
         <v>106.75</v>
@@ -3577,7 +4004,7 @@
         <v>2020</v>
       </c>
       <c r="D132">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E132">
         <v>106.75</v>
@@ -3600,7 +4027,7 @@
         <v>2020</v>
       </c>
       <c r="D133">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E133">
         <v>106.75</v>
@@ -3623,7 +4050,7 @@
         <v>2020</v>
       </c>
       <c r="D134">
-        <v>688</v>
+        <v>840</v>
       </c>
       <c r="E134">
         <v>106.85</v>
@@ -3646,7 +4073,7 @@
         <v>2020</v>
       </c>
       <c r="D135">
-        <v>681</v>
+        <v>714</v>
       </c>
       <c r="E135">
         <v>106.85</v>
@@ -3669,7 +4096,7 @@
         <v>2020</v>
       </c>
       <c r="D136">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="E136">
         <v>106.85</v>
@@ -3692,7 +4119,7 @@
         <v>2020</v>
       </c>
       <c r="D137">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="E137">
         <v>106.85</v>
@@ -3715,7 +4142,7 @@
         <v>2020</v>
       </c>
       <c r="D138">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="E138">
         <v>106.85</v>
@@ -3738,7 +4165,7 @@
         <v>2020</v>
       </c>
       <c r="D139">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="E139">
         <v>106.85</v>
@@ -3761,7 +4188,7 @@
         <v>2020</v>
       </c>
       <c r="D140">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="E140">
         <v>106.85</v>
@@ -3784,7 +4211,7 @@
         <v>2020</v>
       </c>
       <c r="D141">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="E141">
         <v>106.85</v>
@@ -3807,7 +4234,7 @@
         <v>2020</v>
       </c>
       <c r="D142">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E142">
         <v>106.85</v>
@@ -3830,7 +4257,7 @@
         <v>2020</v>
       </c>
       <c r="D143">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="E143">
         <v>106.85</v>
@@ -3853,7 +4280,7 @@
         <v>2020</v>
       </c>
       <c r="D144">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="E144">
         <v>106.85</v>
@@ -3876,7 +4303,7 @@
         <v>2020</v>
       </c>
       <c r="D145">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E145">
         <v>106.85</v>
@@ -3899,7 +4326,7 @@
         <v>2020</v>
       </c>
       <c r="D146">
-        <v>623</v>
+        <v>765</v>
       </c>
       <c r="E146">
         <v>106.80833333333</v>
@@ -3922,7 +4349,7 @@
         <v>2020</v>
       </c>
       <c r="D147">
-        <v>582</v>
+        <v>655</v>
       </c>
       <c r="E147">
         <v>106.80833333333</v>
@@ -3945,7 +4372,7 @@
         <v>2020</v>
       </c>
       <c r="D148">
-        <v>650</v>
+        <v>678</v>
       </c>
       <c r="E148">
         <v>106.80833333333</v>
@@ -3968,7 +4395,7 @@
         <v>2020</v>
       </c>
       <c r="D149">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E149">
         <v>106.80833333333</v>
@@ -3991,7 +4418,7 @@
         <v>2020</v>
       </c>
       <c r="D150">
-        <v>283</v>
+        <v>342</v>
       </c>
       <c r="E150">
         <v>106.80833333333</v>
@@ -4014,7 +4441,7 @@
         <v>2020</v>
       </c>
       <c r="D151">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E151">
         <v>106.80833333333</v>
@@ -4037,7 +4464,7 @@
         <v>2020</v>
       </c>
       <c r="D152">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E152">
         <v>106.80833333333</v>
@@ -4060,7 +4487,7 @@
         <v>2020</v>
       </c>
       <c r="D153">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="E153">
         <v>106.80833333333</v>
@@ -4083,7 +4510,7 @@
         <v>2020</v>
       </c>
       <c r="D154">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E154">
         <v>106.80833333333</v>
@@ -4106,7 +4533,7 @@
         <v>2020</v>
       </c>
       <c r="D155">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E155">
         <v>106.80833333333</v>
@@ -4129,7 +4556,7 @@
         <v>2020</v>
       </c>
       <c r="D156">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="E156">
         <v>106.80833333333</v>
@@ -4152,7 +4579,7 @@
         <v>2020</v>
       </c>
       <c r="D157">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E157">
         <v>106.80833333333</v>
@@ -4175,7 +4602,7 @@
         <v>2020</v>
       </c>
       <c r="D158">
-        <v>885</v>
+        <v>1148</v>
       </c>
       <c r="E158">
         <v>106.91</v>
@@ -4198,7 +4625,7 @@
         <v>2020</v>
       </c>
       <c r="D159">
-        <v>812</v>
+        <v>961</v>
       </c>
       <c r="E159">
         <v>106.91</v>
@@ -4221,7 +4648,7 @@
         <v>2020</v>
       </c>
       <c r="D160">
-        <v>945</v>
+        <v>1021</v>
       </c>
       <c r="E160">
         <v>106.91</v>
@@ -4244,7 +4671,7 @@
         <v>2020</v>
       </c>
       <c r="D161">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E161">
         <v>106.91</v>
@@ -4267,7 +4694,7 @@
         <v>2020</v>
       </c>
       <c r="D162">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="E162">
         <v>106.91</v>
@@ -4290,7 +4717,7 @@
         <v>2020</v>
       </c>
       <c r="D163">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="E163">
         <v>106.91</v>
@@ -4313,7 +4740,7 @@
         <v>2020</v>
       </c>
       <c r="D164">
-        <v>643</v>
+        <v>676</v>
       </c>
       <c r="E164">
         <v>106.91</v>
@@ -4336,7 +4763,7 @@
         <v>2020</v>
       </c>
       <c r="D165">
-        <v>509</v>
+        <v>559</v>
       </c>
       <c r="E165">
         <v>106.91</v>
@@ -4359,7 +4786,7 @@
         <v>2020</v>
       </c>
       <c r="D166">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="E166">
         <v>106.91</v>
@@ -4382,7 +4809,7 @@
         <v>2020</v>
       </c>
       <c r="D167">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="E167">
         <v>106.91</v>
@@ -4405,7 +4832,7 @@
         <v>2020</v>
       </c>
       <c r="D168">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="E168">
         <v>106.91</v>
@@ -4428,7 +4855,7 @@
         <v>2020</v>
       </c>
       <c r="D169">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="E169">
         <v>106.91</v>
@@ -4451,7 +4878,7 @@
         <v>2020</v>
       </c>
       <c r="D170">
-        <v>464</v>
+        <v>563</v>
       </c>
       <c r="E170">
         <v>106.89166666667001</v>
@@ -4474,7 +4901,7 @@
         <v>2020</v>
       </c>
       <c r="D171">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="E171">
         <v>106.89166666667001</v>
@@ -4497,7 +4924,7 @@
         <v>2020</v>
       </c>
       <c r="D172">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="E172">
         <v>106.89166666667001</v>
@@ -4520,7 +4947,7 @@
         <v>2020</v>
       </c>
       <c r="D173">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E173">
         <v>106.89166666667001</v>
@@ -4543,7 +4970,7 @@
         <v>2020</v>
       </c>
       <c r="D174">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E174">
         <v>106.89166666667001</v>
@@ -4566,7 +4993,7 @@
         <v>2020</v>
       </c>
       <c r="D175">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="E175">
         <v>106.89166666667001</v>
@@ -4589,7 +5016,7 @@
         <v>2020</v>
       </c>
       <c r="D176">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="E176">
         <v>106.89166666667001</v>
@@ -4612,7 +5039,7 @@
         <v>2020</v>
       </c>
       <c r="D177">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E177">
         <v>106.89166666667001</v>
@@ -4635,7 +5062,7 @@
         <v>2020</v>
       </c>
       <c r="D178">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E178">
         <v>106.89166666667001</v>
@@ -4658,7 +5085,7 @@
         <v>2020</v>
       </c>
       <c r="D179">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="E179">
         <v>106.89166666667001</v>
@@ -4681,7 +5108,7 @@
         <v>2020</v>
       </c>
       <c r="D180">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E180">
         <v>106.89166666667001</v>
@@ -4704,7 +5131,7 @@
         <v>2020</v>
       </c>
       <c r="D181">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E181">
         <v>106.89166666667001</v>
@@ -4727,7 +5154,7 @@
         <v>2021</v>
       </c>
       <c r="D182">
-        <v>329</v>
+        <v>420</v>
       </c>
       <c r="E182">
         <v>106.75</v>
@@ -4750,7 +5177,7 @@
         <v>2021</v>
       </c>
       <c r="D183">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E183">
         <v>106.75</v>
@@ -4773,7 +5200,7 @@
         <v>2021</v>
       </c>
       <c r="D184">
-        <v>448</v>
+        <v>517</v>
       </c>
       <c r="E184">
         <v>106.75</v>
@@ -4796,7 +5223,7 @@
         <v>2021</v>
       </c>
       <c r="D185">
-        <v>469</v>
+        <v>539</v>
       </c>
       <c r="E185">
         <v>106.75</v>
@@ -4819,7 +5246,7 @@
         <v>2021</v>
       </c>
       <c r="D186">
-        <v>449</v>
+        <v>524</v>
       </c>
       <c r="E186">
         <v>106.75</v>
@@ -4842,7 +5269,7 @@
         <v>2021</v>
       </c>
       <c r="D187">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="E187">
         <v>106.75</v>
@@ -4865,7 +5292,7 @@
         <v>2021</v>
       </c>
       <c r="D188">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="E188">
         <v>106.75</v>
@@ -4888,7 +5315,7 @@
         <v>2021</v>
       </c>
       <c r="D189">
-        <v>389</v>
+        <v>476</v>
       </c>
       <c r="E189">
         <v>106.75</v>
@@ -4911,7 +5338,7 @@
         <v>2021</v>
       </c>
       <c r="D190">
-        <v>515</v>
+        <v>612</v>
       </c>
       <c r="E190">
         <v>106.75</v>
@@ -4934,7 +5361,7 @@
         <v>2021</v>
       </c>
       <c r="D191">
-        <v>576</v>
+        <v>703</v>
       </c>
       <c r="E191">
         <v>106.75</v>
@@ -4957,7 +5384,7 @@
         <v>2021</v>
       </c>
       <c r="D192">
-        <v>561</v>
+        <v>690</v>
       </c>
       <c r="E192">
         <v>106.75</v>
@@ -4980,7 +5407,7 @@
         <v>2021</v>
       </c>
       <c r="D193">
-        <v>519</v>
+        <v>604</v>
       </c>
       <c r="E193">
         <v>106.75</v>
@@ -5003,7 +5430,7 @@
         <v>2021</v>
       </c>
       <c r="D194">
-        <v>371</v>
+        <v>447</v>
       </c>
       <c r="E194">
         <v>106.85</v>
@@ -5026,7 +5453,7 @@
         <v>2021</v>
       </c>
       <c r="D195">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="E195">
         <v>106.85</v>
@@ -5049,7 +5476,7 @@
         <v>2021</v>
       </c>
       <c r="D196">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="E196">
         <v>106.85</v>
@@ -5072,7 +5499,7 @@
         <v>2021</v>
       </c>
       <c r="D197">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="E197">
         <v>106.85</v>
@@ -5095,7 +5522,7 @@
         <v>2021</v>
       </c>
       <c r="D198">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="E198">
         <v>106.85</v>
@@ -5118,7 +5545,7 @@
         <v>2021</v>
       </c>
       <c r="D199">
-        <v>431</v>
+        <v>466</v>
       </c>
       <c r="E199">
         <v>106.85</v>
@@ -5141,7 +5568,7 @@
         <v>2021</v>
       </c>
       <c r="D200">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="E200">
         <v>106.85</v>
@@ -5164,7 +5591,7 @@
         <v>2021</v>
       </c>
       <c r="D201">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="E201">
         <v>106.85</v>
@@ -5187,7 +5614,7 @@
         <v>2021</v>
       </c>
       <c r="D202">
-        <v>492</v>
+        <v>594</v>
       </c>
       <c r="E202">
         <v>106.85</v>
@@ -5210,7 +5637,7 @@
         <v>2021</v>
       </c>
       <c r="D203">
-        <v>518</v>
+        <v>566</v>
       </c>
       <c r="E203">
         <v>106.85</v>
@@ -5233,7 +5660,7 @@
         <v>2021</v>
       </c>
       <c r="D204">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="E204">
         <v>106.85</v>
@@ -5256,7 +5683,7 @@
         <v>2021</v>
       </c>
       <c r="D205">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="E205">
         <v>106.85</v>
@@ -5279,7 +5706,7 @@
         <v>2021</v>
       </c>
       <c r="D206">
-        <v>335</v>
+        <v>404</v>
       </c>
       <c r="E206">
         <v>106.80833333333</v>
@@ -5302,7 +5729,7 @@
         <v>2021</v>
       </c>
       <c r="D207">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="E207">
         <v>106.80833333333</v>
@@ -5325,7 +5752,7 @@
         <v>2021</v>
       </c>
       <c r="D208">
-        <v>445</v>
+        <v>513</v>
       </c>
       <c r="E208">
         <v>106.80833333333</v>
@@ -5348,7 +5775,7 @@
         <v>2021</v>
       </c>
       <c r="D209">
-        <v>448</v>
+        <v>516</v>
       </c>
       <c r="E209">
         <v>106.80833333333</v>
@@ -5371,7 +5798,7 @@
         <v>2021</v>
       </c>
       <c r="D210">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="E210">
         <v>106.80833333333</v>
@@ -5394,7 +5821,7 @@
         <v>2021</v>
       </c>
       <c r="D211">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="E211">
         <v>106.80833333333</v>
@@ -5417,7 +5844,7 @@
         <v>2021</v>
       </c>
       <c r="D212">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E212">
         <v>106.80833333333</v>
@@ -5440,7 +5867,7 @@
         <v>2021</v>
       </c>
       <c r="D213">
-        <v>384</v>
+        <v>454</v>
       </c>
       <c r="E213">
         <v>106.80833333333</v>
@@ -5463,7 +5890,7 @@
         <v>2021</v>
       </c>
       <c r="D214">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="E214">
         <v>106.80833333333</v>
@@ -5486,7 +5913,7 @@
         <v>2021</v>
       </c>
       <c r="D215">
-        <v>532</v>
+        <v>629</v>
       </c>
       <c r="E215">
         <v>106.80833333333</v>
@@ -5509,7 +5936,7 @@
         <v>2021</v>
       </c>
       <c r="D216">
-        <v>567</v>
+        <v>666</v>
       </c>
       <c r="E216">
         <v>106.80833333333</v>
@@ -5532,7 +5959,7 @@
         <v>2021</v>
       </c>
       <c r="D217">
-        <v>567</v>
+        <v>620</v>
       </c>
       <c r="E217">
         <v>106.80833333333</v>
@@ -5555,7 +5982,7 @@
         <v>2021</v>
       </c>
       <c r="D218">
-        <v>521</v>
+        <v>599</v>
       </c>
       <c r="E218">
         <v>106.91</v>
@@ -5578,7 +6005,7 @@
         <v>2021</v>
       </c>
       <c r="D219">
-        <v>495</v>
+        <v>579</v>
       </c>
       <c r="E219">
         <v>106.91</v>
@@ -5601,7 +6028,7 @@
         <v>2021</v>
       </c>
       <c r="D220">
-        <v>709</v>
+        <v>841</v>
       </c>
       <c r="E220">
         <v>106.91</v>
@@ -5624,7 +6051,7 @@
         <v>2021</v>
       </c>
       <c r="D221">
-        <v>798</v>
+        <v>914</v>
       </c>
       <c r="E221">
         <v>106.91</v>
@@ -5647,7 +6074,7 @@
         <v>2021</v>
       </c>
       <c r="D222">
-        <v>698</v>
+        <v>830</v>
       </c>
       <c r="E222">
         <v>106.91</v>
@@ -5670,7 +6097,7 @@
         <v>2021</v>
       </c>
       <c r="D223">
-        <v>826</v>
+        <v>837</v>
       </c>
       <c r="E223">
         <v>106.91</v>
@@ -5693,7 +6120,7 @@
         <v>2021</v>
       </c>
       <c r="D224">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="E224">
         <v>106.91</v>
@@ -5716,7 +6143,7 @@
         <v>2021</v>
       </c>
       <c r="D225">
-        <v>664</v>
+        <v>829</v>
       </c>
       <c r="E225">
         <v>106.91</v>
@@ -5739,7 +6166,7 @@
         <v>2021</v>
       </c>
       <c r="D226">
-        <v>878</v>
+        <v>1010</v>
       </c>
       <c r="E226">
         <v>106.91</v>
@@ -5762,7 +6189,7 @@
         <v>2021</v>
       </c>
       <c r="D227">
-        <v>877</v>
+        <v>977</v>
       </c>
       <c r="E227">
         <v>106.91</v>
@@ -5785,7 +6212,7 @@
         <v>2021</v>
       </c>
       <c r="D228">
-        <v>896</v>
+        <v>1015</v>
       </c>
       <c r="E228">
         <v>106.91</v>
@@ -5808,7 +6235,7 @@
         <v>2021</v>
       </c>
       <c r="D229">
-        <v>852</v>
+        <v>930</v>
       </c>
       <c r="E229">
         <v>106.91</v>
@@ -5831,7 +6258,7 @@
         <v>2021</v>
       </c>
       <c r="D230">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="E230">
         <v>106.89166666667001</v>
@@ -5854,7 +6281,7 @@
         <v>2021</v>
       </c>
       <c r="D231">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="E231">
         <v>106.89166666667001</v>
@@ -5877,7 +6304,7 @@
         <v>2021</v>
       </c>
       <c r="D232">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="E232">
         <v>106.89166666667001</v>
@@ -5900,7 +6327,7 @@
         <v>2021</v>
       </c>
       <c r="D233">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="E233">
         <v>106.89166666667001</v>
@@ -5923,7 +6350,7 @@
         <v>2021</v>
       </c>
       <c r="D234">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="E234">
         <v>106.89166666667001</v>
@@ -5946,7 +6373,7 @@
         <v>2021</v>
       </c>
       <c r="D235">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="E235">
         <v>106.89166666667001</v>
@@ -5969,7 +6396,7 @@
         <v>2021</v>
       </c>
       <c r="D236">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="E236">
         <v>106.89166666667001</v>
@@ -5992,7 +6419,7 @@
         <v>2021</v>
       </c>
       <c r="D237">
-        <v>337</v>
+        <v>417</v>
       </c>
       <c r="E237">
         <v>106.89166666667001</v>
@@ -6015,7 +6442,7 @@
         <v>2021</v>
       </c>
       <c r="D238">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="E238">
         <v>106.89166666667001</v>
@@ -6038,7 +6465,7 @@
         <v>2021</v>
       </c>
       <c r="D239">
-        <v>432</v>
+        <v>501</v>
       </c>
       <c r="E239">
         <v>106.89166666667001</v>
@@ -6061,7 +6488,7 @@
         <v>2021</v>
       </c>
       <c r="D240">
-        <v>475</v>
+        <v>563</v>
       </c>
       <c r="E240">
         <v>106.89166666667001</v>
@@ -6084,7 +6511,7 @@
         <v>2021</v>
       </c>
       <c r="D241">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="E241">
         <v>106.89166666667001</v>
@@ -6107,7 +6534,7 @@
         <v>2022</v>
       </c>
       <c r="D242">
-        <v>851</v>
+        <v>913</v>
       </c>
       <c r="E242">
         <v>106.75</v>
@@ -6130,7 +6557,7 @@
         <v>2022</v>
       </c>
       <c r="D243">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="E243">
         <v>106.75</v>
@@ -6153,7 +6580,7 @@
         <v>2022</v>
       </c>
       <c r="D244">
-        <v>655</v>
+        <v>850</v>
       </c>
       <c r="E244">
         <v>106.75</v>
@@ -6176,7 +6603,7 @@
         <v>2022</v>
       </c>
       <c r="D245">
-        <v>698</v>
+        <v>759</v>
       </c>
       <c r="E245">
         <v>106.75</v>
@@ -6199,7 +6626,7 @@
         <v>2022</v>
       </c>
       <c r="D246">
-        <v>650</v>
+        <v>833</v>
       </c>
       <c r="E246">
         <v>106.75</v>
@@ -6222,7 +6649,7 @@
         <v>2022</v>
       </c>
       <c r="D247">
-        <v>881</v>
+        <v>995</v>
       </c>
       <c r="E247">
         <v>106.75</v>
@@ -6245,7 +6672,7 @@
         <v>2022</v>
       </c>
       <c r="D248">
-        <v>829</v>
+        <v>910</v>
       </c>
       <c r="E248">
         <v>106.75</v>
@@ -6268,7 +6695,7 @@
         <v>2022</v>
       </c>
       <c r="D249">
-        <v>864</v>
+        <v>995</v>
       </c>
       <c r="E249">
         <v>106.75</v>
@@ -6291,7 +6718,7 @@
         <v>2022</v>
       </c>
       <c r="D250">
-        <v>891</v>
+        <v>1018</v>
       </c>
       <c r="E250">
         <v>106.75</v>
@@ -6314,7 +6741,7 @@
         <v>2022</v>
       </c>
       <c r="D251">
-        <v>898</v>
+        <v>1083</v>
       </c>
       <c r="E251">
         <v>106.75</v>
@@ -6337,7 +6764,7 @@
         <v>2022</v>
       </c>
       <c r="D252">
-        <v>999</v>
+        <v>1128</v>
       </c>
       <c r="E252">
         <v>106.75</v>
@@ -6360,7 +6787,7 @@
         <v>2022</v>
       </c>
       <c r="D253">
-        <v>933</v>
+        <v>1040</v>
       </c>
       <c r="E253">
         <v>106.75</v>
@@ -6383,7 +6810,7 @@
         <v>2022</v>
       </c>
       <c r="D254">
-        <v>866</v>
+        <v>955</v>
       </c>
       <c r="E254">
         <v>106.85</v>
@@ -6406,7 +6833,7 @@
         <v>2022</v>
       </c>
       <c r="D255">
-        <v>378</v>
+        <v>504</v>
       </c>
       <c r="E255">
         <v>106.85</v>
@@ -6429,7 +6856,7 @@
         <v>2022</v>
       </c>
       <c r="D256">
-        <v>578</v>
+        <v>814</v>
       </c>
       <c r="E256">
         <v>106.85</v>
@@ -6452,7 +6879,7 @@
         <v>2022</v>
       </c>
       <c r="D257">
-        <v>567</v>
+        <v>687</v>
       </c>
       <c r="E257">
         <v>106.85</v>
@@ -6475,7 +6902,7 @@
         <v>2022</v>
       </c>
       <c r="D258">
-        <v>513</v>
+        <v>740</v>
       </c>
       <c r="E258">
         <v>106.85</v>
@@ -6498,7 +6925,7 @@
         <v>2022</v>
       </c>
       <c r="D259">
-        <v>614</v>
+        <v>772</v>
       </c>
       <c r="E259">
         <v>106.85</v>
@@ -6521,7 +6948,7 @@
         <v>2022</v>
       </c>
       <c r="D260">
-        <v>599</v>
+        <v>774</v>
       </c>
       <c r="E260">
         <v>106.85</v>
@@ -6544,7 +6971,7 @@
         <v>2022</v>
       </c>
       <c r="D261">
-        <v>675</v>
+        <v>855</v>
       </c>
       <c r="E261">
         <v>106.85</v>
@@ -6567,7 +6994,7 @@
         <v>2022</v>
       </c>
       <c r="D262">
-        <v>707</v>
+        <v>893</v>
       </c>
       <c r="E262">
         <v>106.85</v>
@@ -6590,7 +7017,7 @@
         <v>2022</v>
       </c>
       <c r="D263">
-        <v>692</v>
+        <v>833</v>
       </c>
       <c r="E263">
         <v>106.85</v>
@@ -6613,7 +7040,7 @@
         <v>2022</v>
       </c>
       <c r="D264">
-        <v>704</v>
+        <v>836</v>
       </c>
       <c r="E264">
         <v>106.85</v>
@@ -6636,7 +7063,7 @@
         <v>2022</v>
       </c>
       <c r="D265">
-        <v>701</v>
+        <v>836</v>
       </c>
       <c r="E265">
         <v>106.85</v>
@@ -6659,7 +7086,7 @@
         <v>2022</v>
       </c>
       <c r="D266">
-        <v>939</v>
+        <v>907</v>
       </c>
       <c r="E266">
         <v>106.80833333333</v>
@@ -6682,7 +7109,7 @@
         <v>2022</v>
       </c>
       <c r="D267">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E267">
         <v>106.80833333333</v>
@@ -6705,7 +7132,7 @@
         <v>2022</v>
       </c>
       <c r="D268">
-        <v>640</v>
+        <v>778</v>
       </c>
       <c r="E268">
         <v>106.80833333333</v>
@@ -6728,7 +7155,7 @@
         <v>2022</v>
       </c>
       <c r="D269">
-        <v>686</v>
+        <v>714</v>
       </c>
       <c r="E269">
         <v>106.80833333333</v>
@@ -6751,7 +7178,7 @@
         <v>2022</v>
       </c>
       <c r="D270">
-        <v>609</v>
+        <v>755</v>
       </c>
       <c r="E270">
         <v>106.80833333333</v>
@@ -6774,7 +7201,7 @@
         <v>2022</v>
       </c>
       <c r="D271">
-        <v>782</v>
+        <v>874</v>
       </c>
       <c r="E271">
         <v>106.80833333333</v>
@@ -6797,7 +7224,7 @@
         <v>2022</v>
       </c>
       <c r="D272">
-        <v>742</v>
+        <v>825</v>
       </c>
       <c r="E272">
         <v>106.80833333333</v>
@@ -6820,7 +7247,7 @@
         <v>2022</v>
       </c>
       <c r="D273">
-        <v>776</v>
+        <v>897</v>
       </c>
       <c r="E273">
         <v>106.80833333333</v>
@@ -6843,7 +7270,7 @@
         <v>2022</v>
       </c>
       <c r="D274">
-        <v>885</v>
+        <v>978</v>
       </c>
       <c r="E274">
         <v>106.80833333333</v>
@@ -6866,7 +7293,7 @@
         <v>2022</v>
       </c>
       <c r="D275">
-        <v>813</v>
+        <v>909</v>
       </c>
       <c r="E275">
         <v>106.80833333333</v>
@@ -6889,7 +7316,7 @@
         <v>2022</v>
       </c>
       <c r="D276">
-        <v>822</v>
+        <v>931</v>
       </c>
       <c r="E276">
         <v>106.80833333333</v>
@@ -6912,7 +7339,7 @@
         <v>2022</v>
       </c>
       <c r="D277">
-        <v>873</v>
+        <v>1047</v>
       </c>
       <c r="E277">
         <v>106.80833333333</v>
@@ -6935,7 +7362,7 @@
         <v>2022</v>
       </c>
       <c r="D278">
-        <v>1073</v>
+        <v>1200</v>
       </c>
       <c r="E278">
         <v>106.91</v>
@@ -6958,7 +7385,7 @@
         <v>2022</v>
       </c>
       <c r="D279">
-        <v>676</v>
+        <v>777</v>
       </c>
       <c r="E279">
         <v>106.91</v>
@@ -6981,7 +7408,7 @@
         <v>2022</v>
       </c>
       <c r="D280">
-        <v>949</v>
+        <v>1213</v>
       </c>
       <c r="E280">
         <v>106.91</v>
@@ -7004,7 +7431,7 @@
         <v>2022</v>
       </c>
       <c r="D281">
-        <v>948</v>
+        <v>1047</v>
       </c>
       <c r="E281">
         <v>106.91</v>
@@ -7027,7 +7454,7 @@
         <v>2022</v>
       </c>
       <c r="D282">
-        <v>841</v>
+        <v>1183</v>
       </c>
       <c r="E282">
         <v>106.91</v>
@@ -7050,7 +7477,7 @@
         <v>2022</v>
       </c>
       <c r="D283">
-        <v>1064</v>
+        <v>1315</v>
       </c>
       <c r="E283">
         <v>106.91</v>
@@ -7073,7 +7500,7 @@
         <v>2022</v>
       </c>
       <c r="D284">
-        <v>1041</v>
+        <v>1206</v>
       </c>
       <c r="E284">
         <v>106.91</v>
@@ -7096,7 +7523,7 @@
         <v>2022</v>
       </c>
       <c r="D285">
-        <v>1101</v>
+        <v>1312</v>
       </c>
       <c r="E285">
         <v>106.91</v>
@@ -7119,7 +7546,7 @@
         <v>2022</v>
       </c>
       <c r="D286">
-        <v>1125</v>
+        <v>1408</v>
       </c>
       <c r="E286">
         <v>106.91</v>
@@ -7142,7 +7569,7 @@
         <v>2022</v>
       </c>
       <c r="D287">
-        <v>1210</v>
+        <v>1404</v>
       </c>
       <c r="E287">
         <v>106.91</v>
@@ -7165,7 +7592,7 @@
         <v>2022</v>
       </c>
       <c r="D288">
-        <v>1125</v>
+        <v>1438</v>
       </c>
       <c r="E288">
         <v>106.91</v>
@@ -7188,7 +7615,7 @@
         <v>2022</v>
       </c>
       <c r="D289">
-        <v>1203</v>
+        <v>1348</v>
       </c>
       <c r="E289">
         <v>106.91</v>
@@ -7211,7 +7638,7 @@
         <v>2022</v>
       </c>
       <c r="D290">
-        <v>766</v>
+        <v>814</v>
       </c>
       <c r="E290">
         <v>106.89166666667001</v>
@@ -7234,7 +7661,7 @@
         <v>2022</v>
       </c>
       <c r="D291">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="E291">
         <v>106.89166666667001</v>
@@ -7257,7 +7684,7 @@
         <v>2022</v>
       </c>
       <c r="D292">
-        <v>585</v>
+        <v>703</v>
       </c>
       <c r="E292">
         <v>106.89166666667001</v>
@@ -7280,7 +7707,7 @@
         <v>2022</v>
       </c>
       <c r="D293">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="E293">
         <v>106.89166666667001</v>
@@ -7303,7 +7730,7 @@
         <v>2022</v>
       </c>
       <c r="D294">
-        <v>548</v>
+        <v>641</v>
       </c>
       <c r="E294">
         <v>106.89166666667001</v>
@@ -7326,7 +7753,7 @@
         <v>2022</v>
       </c>
       <c r="D295">
-        <v>606</v>
+        <v>701</v>
       </c>
       <c r="E295">
         <v>106.89166666667001</v>
@@ -7349,7 +7776,7 @@
         <v>2022</v>
       </c>
       <c r="D296">
-        <v>595</v>
+        <v>666</v>
       </c>
       <c r="E296">
         <v>106.89166666667001</v>
@@ -7372,7 +7799,7 @@
         <v>2022</v>
       </c>
       <c r="D297">
-        <v>636</v>
+        <v>749</v>
       </c>
       <c r="E297">
         <v>106.89166666667001</v>
@@ -7395,7 +7822,7 @@
         <v>2022</v>
       </c>
       <c r="D298">
-        <v>712</v>
+        <v>786</v>
       </c>
       <c r="E298">
         <v>106.89166666667001</v>
@@ -7418,7 +7845,7 @@
         <v>2022</v>
       </c>
       <c r="D299">
-        <v>715</v>
+        <v>833</v>
       </c>
       <c r="E299">
         <v>106.89166666667001</v>
@@ -7441,7 +7868,7 @@
         <v>2022</v>
       </c>
       <c r="D300">
-        <v>685</v>
+        <v>741</v>
       </c>
       <c r="E300">
         <v>106.89166666667001</v>
@@ -7464,7 +7891,7 @@
         <v>2022</v>
       </c>
       <c r="D301">
-        <v>671</v>
+        <v>806</v>
       </c>
       <c r="E301">
         <v>106.89166666667001</v>
